--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H908"/>
+  <dimension ref="A1:H909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24061,6 +24061,32 @@
         <v>204</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C909" t="n">
+        <v>0.03365384615384615</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1172.55</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.8413461538461539</v>
+      </c>
+      <c r="F909" t="n">
+        <v>26</v>
+      </c>
+      <c r="G909" t="n">
+        <v>7</v>
+      </c>
+      <c r="H909" t="n">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H911"/>
+  <dimension ref="A1:H912"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24091,6 +24091,32 @@
         <v>198</v>
       </c>
     </row>
+    <row r="912" spans="1:8">
+      <c r="A912" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B912">
+        <v>0.1449275362318841</v>
+      </c>
+      <c r="C912">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="D912">
+        <v>1198530</v>
+      </c>
+      <c r="E912">
+        <v>0.8115942028985508</v>
+      </c>
+      <c r="F912">
+        <v>30</v>
+      </c>
+      <c r="G912">
+        <v>9</v>
+      </c>
+      <c r="H912">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H913"/>
+  <dimension ref="A1:H915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23991,19 +23991,19 @@
         <v>0.09313725490196079</v>
       </c>
       <c r="C906" t="n">
-        <v>0.02450980392156863</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D906" t="n">
         <v>1179.65</v>
       </c>
       <c r="E906" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8774509803921569</v>
       </c>
       <c r="F906" t="n">
         <v>19</v>
       </c>
       <c r="G906" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H906" t="n">
         <v>204</v>
@@ -24095,19 +24095,19 @@
         <v>0.1267605633802817</v>
       </c>
       <c r="C910" t="n">
-        <v>0.05164319248826291</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="D910" t="n">
         <v>1186.06</v>
       </c>
       <c r="E910" t="n">
-        <v>0.8215962441314554</v>
+        <v>0.8169014084507041</v>
       </c>
       <c r="F910" t="n">
         <v>27</v>
       </c>
       <c r="G910" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H910" t="n">
         <v>213</v>
@@ -24189,6 +24189,58 @@
       </c>
       <c r="H913" t="n">
         <v>208</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0.1792452830188679</v>
+      </c>
+      <c r="C914" t="n">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1209.7</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="F914" t="n">
+        <v>38</v>
+      </c>
+      <c r="G914" t="n">
+        <v>2</v>
+      </c>
+      <c r="H914" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C915" t="n">
+        <v>0.00909090909090909</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1224.97</v>
+      </c>
+      <c r="E915" t="n">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="F915" t="n">
+        <v>33</v>
+      </c>
+      <c r="G915" t="n">
+        <v>2</v>
+      </c>
+      <c r="H915" t="n">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H915"/>
+  <dimension ref="A1:H916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24243,6 +24243,32 @@
         <v>220</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B916" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="C916" t="n">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1230.06</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0.7962962962962963</v>
+      </c>
+      <c r="F916" t="n">
+        <v>42</v>
+      </c>
+      <c r="G916" t="n">
+        <v>2</v>
+      </c>
+      <c r="H916" t="n">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H916"/>
+  <dimension ref="A1:H917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24248,25 +24248,51 @@
         <v>45342</v>
       </c>
       <c r="B916" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1981566820276498</v>
       </c>
       <c r="C916" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="D916" t="n">
         <v>1230.06</v>
       </c>
       <c r="E916" t="n">
-        <v>0.7962962962962963</v>
+        <v>0.7926267281105991</v>
       </c>
       <c r="F916" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G916" t="n">
         <v>2</v>
       </c>
       <c r="H916" t="n">
-        <v>216</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0.1658986175115207</v>
+      </c>
+      <c r="C917" t="n">
+        <v>0.009216589861751152</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1230.04</v>
+      </c>
+      <c r="E917" t="n">
+        <v>0.8248847926267282</v>
+      </c>
+      <c r="F917" t="n">
+        <v>36</v>
+      </c>
+      <c r="G917" t="n">
+        <v>2</v>
+      </c>
+      <c r="H917" t="n">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H917"/>
+  <dimension ref="A1:H918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24295,6 +24295,32 @@
         <v>217</v>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B918" t="n">
+        <v>0.2018348623853211</v>
+      </c>
+      <c r="C918" t="n">
+        <v>0</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1227.31</v>
+      </c>
+      <c r="E918" t="n">
+        <v>0.7981651376146789</v>
+      </c>
+      <c r="F918" t="n">
+        <v>44</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0</v>
+      </c>
+      <c r="H918" t="n">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H918"/>
+  <dimension ref="A1:H919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24321,6 +24321,32 @@
         <v>218</v>
       </c>
     </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B919" t="n">
+        <v>0.09009009009009009</v>
+      </c>
+      <c r="C919" t="n">
+        <v>0</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1212</v>
+      </c>
+      <c r="E919" t="n">
+        <v>0.9099099099099099</v>
+      </c>
+      <c r="F919" t="n">
+        <v>20</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0</v>
+      </c>
+      <c r="H919" t="n">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H919"/>
+  <dimension ref="A1:H920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24170,7 +24170,7 @@
         <v>45337</v>
       </c>
       <c r="B913" t="n">
-        <v>0.1682692307692308</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="C913" t="n">
         <v>0.01442307692307692</v>
@@ -24179,10 +24179,10 @@
         <v>1202.5</v>
       </c>
       <c r="E913" t="n">
-        <v>0.8173076923076923</v>
+        <v>0.8221153846153847</v>
       </c>
       <c r="F913" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G913" t="n">
         <v>3</v>
@@ -24345,6 +24345,32 @@
       </c>
       <c r="H919" t="n">
         <v>222</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C920" t="n">
+        <v>0.005291005291005291</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1224.17</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0.9312169312169312</v>
+      </c>
+      <c r="F920" t="n">
+        <v>12</v>
+      </c>
+      <c r="G920" t="n">
+        <v>1</v>
+      </c>
+      <c r="H920" t="n">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H920"/>
+  <dimension ref="A1:H921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24352,25 +24352,51 @@
         <v>45348</v>
       </c>
       <c r="B920" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C920" t="n">
-        <v>0.005291005291005291</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="D920" t="n">
         <v>1224.17</v>
       </c>
       <c r="E920" t="n">
-        <v>0.9312169312169312</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F920" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G920" t="n">
         <v>1</v>
       </c>
       <c r="H920" t="n">
-        <v>189</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B921" t="n">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="C921" t="n">
+        <v>0</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1237.46</v>
+      </c>
+      <c r="E921" t="n">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="F921" t="n">
+        <v>32</v>
+      </c>
+      <c r="G921" t="n">
+        <v>0</v>
+      </c>
+      <c r="H921" t="n">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H921"/>
+  <dimension ref="A1:H922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24399,6 +24399,32 @@
         <v>220</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B922" t="n">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="C922" t="n">
+        <v>0</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1254.55</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0.8493150684931507</v>
+      </c>
+      <c r="F922" t="n">
+        <v>33</v>
+      </c>
+      <c r="G922" t="n">
+        <v>0</v>
+      </c>
+      <c r="H922" t="n">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H922"/>
+  <dimension ref="A1:H923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24425,6 +24425,32 @@
         <v>219</v>
       </c>
     </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B923" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="C923" t="n">
+        <v>0</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1252.73</v>
+      </c>
+      <c r="E923" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="F923" t="n">
+        <v>34</v>
+      </c>
+      <c r="G923" t="n">
+        <v>0</v>
+      </c>
+      <c r="H923" t="n">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H923"/>
+  <dimension ref="A1:H924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24451,6 +24451,32 @@
         <v>221</v>
       </c>
     </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B924" t="n">
+        <v>0.162280701754386</v>
+      </c>
+      <c r="C924" t="n">
+        <v>0.004385964912280702</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1258.28</v>
+      </c>
+      <c r="E924" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F924" t="n">
+        <v>37</v>
+      </c>
+      <c r="G924" t="n">
+        <v>1</v>
+      </c>
+      <c r="H924" t="n">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H924"/>
+  <dimension ref="A1:H925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24477,6 +24477,32 @@
         <v>228</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B925" t="n">
+        <v>0.1748878923766816</v>
+      </c>
+      <c r="C925" t="n">
+        <v>0.004484304932735426</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1261.41</v>
+      </c>
+      <c r="E925" t="n">
+        <v>0.8206278026905829</v>
+      </c>
+      <c r="F925" t="n">
+        <v>39</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1</v>
+      </c>
+      <c r="H925" t="n">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H925"/>
+  <dimension ref="A1:H926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24482,25 +24482,51 @@
         <v>45355</v>
       </c>
       <c r="B925" t="n">
-        <v>0.1748878923766816</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="C925" t="n">
-        <v>0.004484304932735426</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="D925" t="n">
         <v>1261.41</v>
       </c>
       <c r="E925" t="n">
-        <v>0.8206278026905829</v>
+        <v>0.8165938864628821</v>
       </c>
       <c r="F925" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
       </c>
       <c r="H925" t="n">
-        <v>223</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B926" t="n">
+        <v>0.1711711711711712</v>
+      </c>
+      <c r="C926" t="n">
+        <v>0</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1269.98</v>
+      </c>
+      <c r="E926" t="n">
+        <v>0.8288288288288288</v>
+      </c>
+      <c r="F926" t="n">
+        <v>38</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0</v>
+      </c>
+      <c r="H926" t="n">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H926"/>
+  <dimension ref="A1:H927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24529,6 +24529,32 @@
         <v>222</v>
       </c>
     </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B927" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C927" t="n">
+        <v>0</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1262.73</v>
+      </c>
+      <c r="E927" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="F927" t="n">
+        <v>30</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0</v>
+      </c>
+      <c r="H927" t="n">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H927"/>
+  <dimension ref="A1:H928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24555,6 +24555,32 @@
         <v>216</v>
       </c>
     </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B928" t="n">
+        <v>0.1266968325791855</v>
+      </c>
+      <c r="C928" t="n">
+        <v>0.004524886877828055</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1268.46</v>
+      </c>
+      <c r="E928" t="n">
+        <v>0.8687782805429864</v>
+      </c>
+      <c r="F928" t="n">
+        <v>28</v>
+      </c>
+      <c r="G928" t="n">
+        <v>1</v>
+      </c>
+      <c r="H928" t="n">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H928"/>
+  <dimension ref="A1:H929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24581,6 +24581,32 @@
         <v>221</v>
       </c>
     </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B929" t="n">
+        <v>0.1135371179039301</v>
+      </c>
+      <c r="C929" t="n">
+        <v>0.008733624454148471</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1247.35</v>
+      </c>
+      <c r="E929" t="n">
+        <v>0.8777292576419213</v>
+      </c>
+      <c r="F929" t="n">
+        <v>26</v>
+      </c>
+      <c r="G929" t="n">
+        <v>2</v>
+      </c>
+      <c r="H929" t="n">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H929"/>
+  <dimension ref="A1:H930"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24607,6 +24607,32 @@
         <v>229</v>
       </c>
     </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B930" t="n">
+        <v>0.08144796380090498</v>
+      </c>
+      <c r="C930" t="n">
+        <v>0.04072398190045249</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1235.49</v>
+      </c>
+      <c r="E930" t="n">
+        <v>0.8778280542986425</v>
+      </c>
+      <c r="F930" t="n">
+        <v>18</v>
+      </c>
+      <c r="G930" t="n">
+        <v>9</v>
+      </c>
+      <c r="H930" t="n">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H930"/>
+  <dimension ref="A1:H931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24633,6 +24633,32 @@
         <v>221</v>
       </c>
     </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B931" t="n">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="C931" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E931" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="F931" t="n">
+        <v>21</v>
+      </c>
+      <c r="G931" t="n">
+        <v>7</v>
+      </c>
+      <c r="H931" t="n">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H931"/>
+  <dimension ref="A1:H932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24659,6 +24659,32 @@
         <v>217</v>
       </c>
     </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B932" t="n">
+        <v>0.1415929203539823</v>
+      </c>
+      <c r="C932" t="n">
+        <v>0.02212389380530973</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1270.51</v>
+      </c>
+      <c r="E932" t="n">
+        <v>0.8362831858407079</v>
+      </c>
+      <c r="F932" t="n">
+        <v>32</v>
+      </c>
+      <c r="G932" t="n">
+        <v>5</v>
+      </c>
+      <c r="H932" t="n">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H932"/>
+  <dimension ref="A1:H933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24508,7 +24508,7 @@
         <v>45356</v>
       </c>
       <c r="B926" t="n">
-        <v>0.1711711711711712</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C926" t="n">
         <v>0</v>
@@ -24517,10 +24517,10 @@
         <v>1269.98</v>
       </c>
       <c r="E926" t="n">
-        <v>0.8288288288288288</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F926" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G926" t="n">
         <v>0</v>
@@ -24534,7 +24534,7 @@
         <v>45357</v>
       </c>
       <c r="B927" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1342592592592593</v>
       </c>
       <c r="C927" t="n">
         <v>0</v>
@@ -24543,10 +24543,10 @@
         <v>1262.73</v>
       </c>
       <c r="E927" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.8657407407407407</v>
       </c>
       <c r="F927" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G927" t="n">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         <v>45358</v>
       </c>
       <c r="B928" t="n">
-        <v>0.1266968325791855</v>
+        <v>0.1221719457013575</v>
       </c>
       <c r="C928" t="n">
         <v>0.004524886877828055</v>
@@ -24569,10 +24569,10 @@
         <v>1268.46</v>
       </c>
       <c r="E928" t="n">
-        <v>0.8687782805429864</v>
+        <v>0.8733031674208145</v>
       </c>
       <c r="F928" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G928" t="n">
         <v>1</v>
@@ -24612,7 +24612,7 @@
         <v>45362</v>
       </c>
       <c r="B930" t="n">
-        <v>0.08144796380090498</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C930" t="n">
         <v>0.04072398190045249</v>
@@ -24621,10 +24621,10 @@
         <v>1235.49</v>
       </c>
       <c r="E930" t="n">
-        <v>0.8778280542986425</v>
+        <v>0.8823529411764707</v>
       </c>
       <c r="F930" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G930" t="n">
         <v>9</v>
@@ -24638,7 +24638,7 @@
         <v>45363</v>
       </c>
       <c r="B931" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="C931" t="n">
         <v>0.03225806451612903</v>
@@ -24647,10 +24647,10 @@
         <v>1245</v>
       </c>
       <c r="E931" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8755760368663594</v>
       </c>
       <c r="F931" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G931" t="n">
         <v>7</v>
@@ -24683,6 +24683,32 @@
       </c>
       <c r="H932" t="n">
         <v>226</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B933" t="n">
+        <v>0.1911111111111111</v>
+      </c>
+      <c r="C933" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1264.26</v>
+      </c>
+      <c r="E933" t="n">
+        <v>0.7866666666666666</v>
+      </c>
+      <c r="F933" t="n">
+        <v>43</v>
+      </c>
+      <c r="G933" t="n">
+        <v>5</v>
+      </c>
+      <c r="H933" t="n">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H933"/>
+  <dimension ref="A1:H934"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24482,7 +24482,7 @@
         <v>45355</v>
       </c>
       <c r="B925" t="n">
-        <v>0.1790393013100437</v>
+        <v>0.1746724890829694</v>
       </c>
       <c r="C925" t="n">
         <v>0.004366812227074236</v>
@@ -24491,10 +24491,10 @@
         <v>1261.41</v>
       </c>
       <c r="E925" t="n">
-        <v>0.8165938864628821</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="F925" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G925" t="n">
         <v>1</v>
@@ -24508,7 +24508,7 @@
         <v>45356</v>
       </c>
       <c r="B926" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C926" t="n">
         <v>0</v>
@@ -24517,10 +24517,10 @@
         <v>1269.98</v>
       </c>
       <c r="E926" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="F926" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G926" t="n">
         <v>0</v>
@@ -24534,7 +24534,7 @@
         <v>45357</v>
       </c>
       <c r="B927" t="n">
-        <v>0.1342592592592593</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="C927" t="n">
         <v>0</v>
@@ -24543,10 +24543,10 @@
         <v>1262.73</v>
       </c>
       <c r="E927" t="n">
-        <v>0.8657407407407407</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="F927" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G927" t="n">
         <v>0</v>
@@ -24709,6 +24709,32 @@
       </c>
       <c r="H933" t="n">
         <v>225</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B934" t="n">
+        <v>0.162280701754386</v>
+      </c>
+      <c r="C934" t="n">
+        <v>0.02192982456140351</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1263.78</v>
+      </c>
+      <c r="E934" t="n">
+        <v>0.8157894736842106</v>
+      </c>
+      <c r="F934" t="n">
+        <v>37</v>
+      </c>
+      <c r="G934" t="n">
+        <v>5</v>
+      </c>
+      <c r="H934" t="n">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H934"/>
+  <dimension ref="A1:H935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24737,6 +24737,32 @@
         <v>228</v>
       </c>
     </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B935" t="n">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="C935" t="n">
+        <v>0.04219409282700422</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1243.56</v>
+      </c>
+      <c r="E935" t="n">
+        <v>0.9324894514767932</v>
+      </c>
+      <c r="F935" t="n">
+        <v>6</v>
+      </c>
+      <c r="G935" t="n">
+        <v>10</v>
+      </c>
+      <c r="H935" t="n">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H935"/>
+  <dimension ref="A1:H936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24763,6 +24763,32 @@
         <v>237</v>
       </c>
     </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B936" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C936" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1242.46</v>
+      </c>
+      <c r="E936" t="n">
+        <v>0.8714285714285714</v>
+      </c>
+      <c r="F936" t="n">
+        <v>20</v>
+      </c>
+      <c r="G936" t="n">
+        <v>7</v>
+      </c>
+      <c r="H936" t="n">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H936"/>
+  <dimension ref="A1:H937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24789,6 +24789,32 @@
         <v>210</v>
       </c>
     </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B937" t="n">
+        <v>0.05741626794258373</v>
+      </c>
+      <c r="C937" t="n">
+        <v>0.01913875598086124</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1260.08</v>
+      </c>
+      <c r="E937" t="n">
+        <v>0.9234449760765551</v>
+      </c>
+      <c r="F937" t="n">
+        <v>12</v>
+      </c>
+      <c r="G937" t="n">
+        <v>4</v>
+      </c>
+      <c r="H937" t="n">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H937"/>
+  <dimension ref="A1:H938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24815,6 +24815,32 @@
         <v>209</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B938" t="n">
+        <v>0.07659574468085106</v>
+      </c>
+      <c r="C938" t="n">
+        <v>0.01276595744680851</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1276.42</v>
+      </c>
+      <c r="E938" t="n">
+        <v>0.9106382978723404</v>
+      </c>
+      <c r="F938" t="n">
+        <v>18</v>
+      </c>
+      <c r="G938" t="n">
+        <v>3</v>
+      </c>
+      <c r="H938" t="n">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H938"/>
+  <dimension ref="A1:H939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24841,6 +24841,32 @@
         <v>235</v>
       </c>
     </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B939" t="n">
+        <v>0.1045454545454545</v>
+      </c>
+      <c r="C939" t="n">
+        <v>0.00909090909090909</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1281.8</v>
+      </c>
+      <c r="E939" t="n">
+        <v>0.8863636363636365</v>
+      </c>
+      <c r="F939" t="n">
+        <v>23</v>
+      </c>
+      <c r="G939" t="n">
+        <v>2</v>
+      </c>
+      <c r="H939" t="n">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H939"/>
+  <dimension ref="A1:H940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24867,6 +24867,32 @@
         <v>220</v>
       </c>
     </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B940" t="n">
+        <v>0.0593607305936073</v>
+      </c>
+      <c r="C940" t="n">
+        <v>0.0091324200913242</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1267.86</v>
+      </c>
+      <c r="E940" t="n">
+        <v>0.9315068493150686</v>
+      </c>
+      <c r="F940" t="n">
+        <v>13</v>
+      </c>
+      <c r="G940" t="n">
+        <v>2</v>
+      </c>
+      <c r="H940" t="n">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H940"/>
+  <dimension ref="A1:H941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24893,6 +24893,32 @@
         <v>219</v>
       </c>
     </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B941" t="n">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="C941" t="n">
+        <v>0.01415094339622642</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1282.21</v>
+      </c>
+      <c r="E941" t="n">
+        <v>0.910377358490566</v>
+      </c>
+      <c r="F941" t="n">
+        <v>16</v>
+      </c>
+      <c r="G941" t="n">
+        <v>3</v>
+      </c>
+      <c r="H941" t="n">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/caculate_OB_OS_RSI.xlsx
+++ b/caculate_OB_OS_RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H941"/>
+  <dimension ref="A1:H942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24919,6 +24919,32 @@
         <v>212</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B942" t="n">
+        <v>0.1173708920187793</v>
+      </c>
+      <c r="C942" t="n">
+        <v>0.009389671361502348</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1283.09</v>
+      </c>
+      <c r="E942" t="n">
+        <v>0.8732394366197183</v>
+      </c>
+      <c r="F942" t="n">
+        <v>25</v>
+      </c>
+      <c r="G942" t="n">
+        <v>2</v>
+      </c>
+      <c r="H942" t="n">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
